--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce87536d450b3c62/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binuk\eclipse-workspace\HybridFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{6A53F484-9CF7-48BE-93F1-33F323ADB6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747B03D6-313E-4B2E-AE8E-49E5416838DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEFE71D-E9B0-491E-94BB-93048AF97543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9E7C67A4-4289-420F-AC35-E4C25E584B9B}"/>
   </bookViews>
@@ -58,12 +58,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>arya</t>
-  </si>
-  <si>
-    <t>arya@test.com</t>
-  </si>
-  <si>
     <t>arya@123</t>
   </si>
   <si>
@@ -89,6 +83,12 @@
   </si>
   <si>
     <t>Playing</t>
+  </si>
+  <si>
+    <t>arya1</t>
+  </si>
+  <si>
+    <t>arya1@test.com</t>
   </si>
 </sst>
 </file>
@@ -163,10 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +505,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,39 +525,39 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binuk\eclipse-workspace\HybridFramework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce87536d450b3c62/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEFE71D-E9B0-491E-94BB-93048AF97543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{6A53F484-9CF7-48BE-93F1-33F323ADB6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F45A998-6839-4D24-8D48-6DA711D68F42}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9E7C67A4-4289-420F-AC35-E4C25E584B9B}"/>
   </bookViews>
@@ -85,10 +85,10 @@
     <t>Playing</t>
   </si>
   <si>
-    <t>arya1</t>
-  </si>
-  <si>
-    <t>arya1@test.com</t>
+    <t>arya2</t>
+  </si>
+  <si>
+    <t>arya2@test.com</t>
   </si>
 </sst>
 </file>
@@ -163,6 +163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce87536d450b3c62/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binuk\eclipse-workspace\HybridFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{6A53F484-9CF7-48BE-93F1-33F323ADB6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F45A998-6839-4D24-8D48-6DA711D68F42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48336A60-8C4D-491F-B3EE-CE1F45136BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9E7C67A4-4289-420F-AC35-E4C25E584B9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9E7C67A4-4289-420F-AC35-E4C25E584B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="NewUsers" sheetId="2" r:id="rId2"/>
+    <sheet name="AddCourse" sheetId="3" r:id="rId3"/>
+    <sheet name="CreateCourse" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>username</t>
   </si>
@@ -58,15 +60,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>arya@123</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -85,10 +81,55 @@
     <t>Playing</t>
   </si>
   <si>
-    <t>arya2</t>
-  </si>
-  <si>
-    <t>arya2@test.com</t>
+    <t>Jaan2</t>
+  </si>
+  <si>
+    <t>jaan2@test.com</t>
+  </si>
+  <si>
+    <t>jaan@123</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>CourseCatg</t>
+  </si>
+  <si>
+    <t>/TestData/sampleimage.jpg</t>
+  </si>
+  <si>
+    <t>Test course1</t>
+  </si>
+  <si>
+    <t>course desc1</t>
+  </si>
+  <si>
+    <t>Test user</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Test course3</t>
+  </si>
+  <si>
+    <t>course desc3</t>
   </si>
 </sst>
 </file>
@@ -163,10 +204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A47223-F741-446D-9AE1-C53540AB4861}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,39 +566,39 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -571,4 +608,114 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2A6192-ABB5-488D-89AF-41C73EC1F9B7}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A01A0D8-1493-4D03-A38F-2629D81E077D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>